--- a/DadosCurso02.xlsx
+++ b/DadosCurso02.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE5A82-70DF-4A90-87FE-3768856AD357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AF5828-E227-4221-BE5B-4B1C545B0A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{AEADFC2D-1F78-44C1-909F-B3FC6181F0CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{AEADFC2D-1F78-44C1-909F-B3FC6181F0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductsA" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Products" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Products!$A$1:$I$151</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="53">
   <si>
     <t>Category</t>
   </si>
@@ -159,6 +160,39 @@
   <si>
     <t>Cables</t>
   </si>
+  <si>
+    <t>Product code</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>Percentage of Items Delivered</t>
+  </si>
+  <si>
+    <t>Half-fingered Gloves</t>
+  </si>
+  <si>
+    <t>Long sleeve logo jersey</t>
+  </si>
+  <si>
+    <t>Water bottle 30 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> More 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Less 10%</t>
+  </si>
+  <si>
+    <t>More 20%</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +203,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +231,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +255,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,12 +321,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,33 +365,80 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,7 +883,7 @@
       </c>
       <c r="B4" s="7">
         <f ca="1">TODAY()+17</f>
-        <v>45357</v>
+        <v>45361</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -806,7 +913,7 @@
       </c>
       <c r="B5" s="7">
         <f ca="1">TODAY()+17</f>
-        <v>45357</v>
+        <v>45361</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>16</v>
@@ -836,7 +943,7 @@
       </c>
       <c r="B6" s="7">
         <f ca="1">TODAY()+2</f>
-        <v>45342</v>
+        <v>45346</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>18</v>
@@ -866,7 +973,7 @@
       </c>
       <c r="B7" s="7">
         <f ca="1">TODAY()+2</f>
-        <v>45342</v>
+        <v>45346</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>20</v>
@@ -954,7 +1061,7 @@
       </c>
       <c r="B10" s="7">
         <f ca="1">TODAY()-8</f>
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -984,7 +1091,7 @@
       </c>
       <c r="B11" s="7">
         <f ca="1">TODAY()-8</f>
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -1072,7 +1179,7 @@
       </c>
       <c r="B14" s="7">
         <f ca="1">TODAY()-3</f>
-        <v>45337</v>
+        <v>45341</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1102,7 +1209,7 @@
       </c>
       <c r="B15" s="7">
         <f ca="1">TODAY()-3</f>
-        <v>45337</v>
+        <v>45341</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>29</v>
@@ -1364,7 +1471,7 @@
       </c>
       <c r="B24" s="7">
         <f ca="1">TODAY()+40</f>
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>32</v>
@@ -1394,7 +1501,7 @@
       </c>
       <c r="B25" s="7">
         <f ca="1">TODAY()+40</f>
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>32</v>
@@ -1482,7 +1589,7 @@
       </c>
       <c r="B28" s="7">
         <f ca="1">TODAY()-45</f>
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>35</v>
@@ -1512,7 +1619,7 @@
       </c>
       <c r="B29" s="7">
         <f ca="1">TODAY()-45</f>
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -2296,7 +2403,7 @@
       </c>
       <c r="B56" s="7">
         <f ca="1">TODAY()-10</f>
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>30</v>
@@ -2326,7 +2433,7 @@
       </c>
       <c r="B57" s="7">
         <f ca="1">TODAY()-10</f>
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>30</v>
@@ -2356,7 +2463,7 @@
       </c>
       <c r="B58" s="7">
         <f ca="1">TODAY()-59</f>
-        <v>45281</v>
+        <v>45285</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>18</v>
@@ -2386,7 +2493,7 @@
       </c>
       <c r="B59" s="7">
         <f ca="1">TODAY()-59</f>
-        <v>45281</v>
+        <v>45285</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>18</v>
@@ -2590,7 +2697,7 @@
       </c>
       <c r="B66" s="7">
         <f ca="1">TODAY()+14</f>
-        <v>45354</v>
+        <v>45358</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>39</v>
@@ -2620,7 +2727,7 @@
       </c>
       <c r="B67" s="7">
         <f ca="1">TODAY()+14</f>
-        <v>45354</v>
+        <v>45358</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>32</v>
@@ -2708,7 +2815,7 @@
       </c>
       <c r="B70" s="7">
         <f ca="1">TODAY()-32</f>
-        <v>45308</v>
+        <v>45312</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>16</v>
@@ -2738,7 +2845,7 @@
       </c>
       <c r="B71" s="7">
         <f ca="1">TODAY()-32</f>
-        <v>45308</v>
+        <v>45312</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>14</v>
@@ -2942,7 +3049,7 @@
       </c>
       <c r="B78" s="7">
         <f ca="1">TODAY()+7</f>
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>30</v>
@@ -2972,7 +3079,7 @@
       </c>
       <c r="B79" s="7">
         <f ca="1">TODAY()+7</f>
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>18</v>
@@ -3002,7 +3109,7 @@
       </c>
       <c r="B80" s="7">
         <f ca="1">TODAY()+1</f>
-        <v>45341</v>
+        <v>45345</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>20</v>
@@ -3032,7 +3139,7 @@
       </c>
       <c r="B81" s="7">
         <f ca="1">TODAY()+1</f>
-        <v>45341</v>
+        <v>45345</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>18</v>
@@ -3062,7 +3169,7 @@
       </c>
       <c r="B82" s="7">
         <f ca="1">TODAY()-10</f>
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>14</v>
@@ -3092,7 +3199,7 @@
       </c>
       <c r="B83" s="7">
         <f ca="1">TODAY()-10</f>
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>13</v>
@@ -3122,7 +3229,7 @@
       </c>
       <c r="B84" s="7">
         <f ca="1">TODAY()-9</f>
-        <v>45331</v>
+        <v>45335</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>13</v>
@@ -3152,7 +3259,7 @@
       </c>
       <c r="B85" s="7">
         <f ca="1">TODAY()-9</f>
-        <v>45331</v>
+        <v>45335</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>14</v>
@@ -3356,7 +3463,7 @@
       </c>
       <c r="B92" s="7">
         <f ca="1">TODAY()+2</f>
-        <v>45342</v>
+        <v>45346</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>38</v>
@@ -3386,7 +3493,7 @@
       </c>
       <c r="B93" s="7">
         <f ca="1">TODAY()+2</f>
-        <v>45342</v>
+        <v>45346</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>10</v>
@@ -3474,7 +3581,7 @@
       </c>
       <c r="B96" s="7">
         <f ca="1">TODAY()-50</f>
-        <v>45290</v>
+        <v>45294</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>40</v>
@@ -3504,7 +3611,7 @@
       </c>
       <c r="B97" s="7">
         <f ca="1">TODAY()-50</f>
-        <v>45290</v>
+        <v>45294</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>40</v>
@@ -3766,7 +3873,7 @@
       </c>
       <c r="B106" s="7">
         <f ca="1">TODAY()-8</f>
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>25</v>
@@ -3796,7 +3903,7 @@
       </c>
       <c r="B107" s="7">
         <f ca="1">TODAY()-8</f>
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>16</v>
@@ -3826,7 +3933,7 @@
       </c>
       <c r="B108" s="7">
         <f ca="1">TODAY()-34</f>
-        <v>45306</v>
+        <v>45310</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>38</v>
@@ -3856,7 +3963,7 @@
       </c>
       <c r="B109" s="7">
         <f ca="1">TODAY()-34</f>
-        <v>45306</v>
+        <v>45310</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>13</v>
@@ -4002,7 +4109,7 @@
       </c>
       <c r="B114" s="7">
         <f ca="1">TODAY()+5</f>
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>32</v>
@@ -4032,7 +4139,7 @@
       </c>
       <c r="B115" s="7">
         <f ca="1">TODAY()+5</f>
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>36</v>
@@ -4062,7 +4169,7 @@
       </c>
       <c r="B116" s="7">
         <f ca="1">TODAY()+39</f>
-        <v>45379</v>
+        <v>45383</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>22</v>
@@ -4092,7 +4199,7 @@
       </c>
       <c r="B117" s="7">
         <f ca="1">TODAY()+39</f>
-        <v>45379</v>
+        <v>45383</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>41</v>
@@ -4122,7 +4229,7 @@
       </c>
       <c r="B118" s="7">
         <f ca="1">TODAY()-1</f>
-        <v>45339</v>
+        <v>45343</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>38</v>
@@ -4152,7 +4259,7 @@
       </c>
       <c r="B119" s="7">
         <f ca="1">TODAY()-1</f>
-        <v>45339</v>
+        <v>45343</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>10</v>
@@ -4240,7 +4347,7 @@
       </c>
       <c r="B122" s="7">
         <f ca="1">TODAY()+32</f>
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>16</v>
@@ -4270,7 +4377,7 @@
       </c>
       <c r="B123" s="7">
         <f ca="1">TODAY()+32</f>
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>25</v>
@@ -4706,7 +4813,7 @@
       </c>
       <c r="B138" s="7">
         <f ca="1">TODAY()-40</f>
-        <v>45300</v>
+        <v>45304</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>13</v>
@@ -4736,7 +4843,7 @@
       </c>
       <c r="B139" s="7">
         <f ca="1">TODAY()-40</f>
-        <v>45300</v>
+        <v>45304</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>10</v>
@@ -4766,7 +4873,7 @@
       </c>
       <c r="B140" s="7">
         <f ca="1">TODAY()+8</f>
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>13</v>
@@ -4796,7 +4903,7 @@
       </c>
       <c r="B141" s="7">
         <f ca="1">TODAY()+8</f>
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>13</v>
@@ -5859,22 +5966,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20082FD7-ECB3-42E9-8674-73C04996FA80}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5907,4405 +6015,4404 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="17">
         <f ca="1">TODAY()+39</f>
-        <v>45379</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>45383</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="18">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="19">
         <v>380</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" s="19">
+        <v>0</v>
+      </c>
+      <c r="H2" s="19">
         <v>25</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="17">
         <f ca="1">TODAY()+39</f>
-        <v>45379</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>45383</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="18">
         <v>7</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="19">
         <v>380</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="19">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="17">
         <v>44571</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="18">
         <v>19.5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="19">
         <v>360</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
         <v>20</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="17">
         <v>44571</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="18">
         <v>19.5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="19">
         <v>360</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
         <v>20</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="17">
         <v>44549</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="18">
         <v>14</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="19">
         <v>260</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="17">
         <v>44549</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="18">
         <v>14</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="19">
         <v>260</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="17">
         <v>44581</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="18">
         <v>33.25</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="19">
         <v>220</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="19">
         <v>80</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="19">
         <v>30</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="17">
         <v>44581</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="18">
         <v>33.25</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="19">
         <v>220</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="19">
         <v>80</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="19">
         <v>30</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="17">
         <v>44570</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="18">
         <v>38</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="19">
         <v>210</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="19">
         <v>10</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="19">
         <v>30</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="17">
         <v>44570</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="18">
         <v>38</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="19">
         <v>210</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="19">
         <v>10</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="19">
         <v>30</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="A12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17">
         <f ca="1">TODAY()-1</f>
-        <v>45339</v>
+        <v>45343</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="18">
         <v>7.75</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="19">
         <v>1250</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
         <v>25</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="17">
         <f ca="1">TODAY()-1</f>
-        <v>45339</v>
+        <v>45343</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="18">
         <v>7.75</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="19">
         <v>1250</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
         <v>25</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="A14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="17">
         <v>44439</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="18">
         <v>28.5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="19">
         <v>1130</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
         <v>25</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="A15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="17">
         <v>44439</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="18">
         <v>28.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="19">
         <v>1130</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
         <v>25</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="A16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="17">
         <v>44367</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="18">
         <v>14</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="19">
         <v>1110</v>
       </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>15</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>15</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="A17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="17">
         <v>44367</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="18">
         <v>14</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="19">
         <v>1110</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>15</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <v>15</v>
+      </c>
+      <c r="I17" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="A18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="17">
         <f ca="1">TODAY()-8</f>
-        <v>45332</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <v>45336</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="18">
         <v>21.05</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="19">
         <v>760</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="A19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="17">
         <v>44544</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="18">
         <v>14</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="19">
         <v>760</v>
       </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
         <v>30</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="17">
         <v>44544</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="18">
         <v>14</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="19">
         <v>760</v>
       </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
         <v>30</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="A21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="17">
         <f ca="1">TODAY()-8</f>
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="18">
         <v>21.05</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="19">
         <v>760</v>
       </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="G21" s="19">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="A22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="17">
         <v>44359</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="18">
         <v>18</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="19">
         <v>690</v>
       </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
         <v>5</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="7">
+      <c r="A23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="17">
         <v>44359</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="18">
         <v>18</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="19">
         <v>690</v>
       </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
         <v>5</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="7">
+      <c r="A24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="17">
         <f ca="1">TODAY()+8</f>
-        <v>45348</v>
-      </c>
-      <c r="C24" s="3" t="s">
+        <v>45352</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="18">
         <v>16.25</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="19">
         <v>650</v>
       </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
         <v>30</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="17">
         <f ca="1">TODAY()+8</f>
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="D25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="18">
         <v>16.25</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="19">
         <v>650</v>
       </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="G25" s="19">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19">
         <v>30</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="7">
+      <c r="A26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="17">
         <f ca="1">TODAY()-34</f>
-        <v>45306</v>
-      </c>
-      <c r="C26" s="3" t="s">
+        <v>45310</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="D26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="18">
         <v>18</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="19">
         <v>570</v>
       </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
         <v>20</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="7">
+      <c r="A27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="17">
         <f ca="1">TODAY()-34</f>
-        <v>45306</v>
-      </c>
-      <c r="C27" s="3" t="s">
+        <v>45310</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="D27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="18">
         <v>18</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="19">
         <v>570</v>
       </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19">
         <v>20</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="7">
+      <c r="A28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="17">
         <v>44562</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="D28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="18">
         <v>22</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="19">
         <v>530</v>
       </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="G28" s="19">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="7">
+      <c r="A29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="17">
         <v>44562</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="D29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="18">
         <v>22</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="19">
         <v>530</v>
       </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="G29" s="19">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="7">
+      <c r="A30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="17">
         <f ca="1">TODAY()-32</f>
-        <v>45308</v>
+        <v>45312</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="D30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="18">
         <v>14</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="19">
         <v>520</v>
       </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="G30" s="19">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19">
         <v>10</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="7">
+      <c r="A31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="17">
         <f ca="1">TODAY()-32</f>
-        <v>45308</v>
-      </c>
-      <c r="C31" s="3" t="s">
+        <v>45312</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="D31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="18">
         <v>14</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="19">
         <v>520</v>
       </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="G31" s="19">
+        <v>0</v>
+      </c>
+      <c r="H31" s="19">
         <v>10</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="7">
+      <c r="A32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="17">
         <v>44543</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="D32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="18">
         <v>43.9</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="21">
         <v>490</v>
       </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="G32" s="19">
+        <v>0</v>
+      </c>
+      <c r="H32" s="19">
         <v>30</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="7">
+      <c r="A33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="17">
         <v>44543</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="D33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="18">
         <v>43.9</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="21">
         <v>490</v>
       </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="G33" s="19">
+        <v>0</v>
+      </c>
+      <c r="H33" s="19">
         <v>30</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="7">
+      <c r="A34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="17">
         <v>44587</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="D34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="18">
         <v>81</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="19">
         <v>400</v>
       </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="G34" s="19">
+        <v>0</v>
+      </c>
+      <c r="H34" s="19">
+        <v>0</v>
+      </c>
+      <c r="I34" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="7">
+      <c r="A35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="17">
         <v>44587</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="D35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="18">
         <v>81</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="19">
         <v>400</v>
       </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="G35" s="19">
+        <v>0</v>
+      </c>
+      <c r="H35" s="19">
+        <v>0</v>
+      </c>
+      <c r="I35" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="7">
+      <c r="A36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="17">
         <v>44415</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="D36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="18">
         <v>18</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="19">
         <v>390</v>
       </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="G36" s="19">
+        <v>0</v>
+      </c>
+      <c r="H36" s="19">
         <v>10</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="7">
+      <c r="A37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="17">
         <v>44415</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="D37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="18">
         <v>18</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="19">
         <v>390</v>
       </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="G37" s="19">
+        <v>0</v>
+      </c>
+      <c r="H37" s="19">
         <v>10</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="7">
+      <c r="A38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="17">
         <v>44558</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="D38" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="18">
         <v>15.5</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="19">
         <v>390</v>
       </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="G38" s="19">
+        <v>0</v>
+      </c>
+      <c r="H38" s="19">
         <v>5</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="7">
+      <c r="A39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="17">
         <v>44558</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="D39" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="18">
         <v>15.5</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="19">
         <v>390</v>
       </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="G39" s="19">
+        <v>0</v>
+      </c>
+      <c r="H39" s="19">
         <v>5</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="7">
+      <c r="A40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="17">
         <f ca="1">TODAY()+17</f>
-        <v>45357</v>
+        <v>45361</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="D40" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="18">
         <v>9.5</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="19">
         <v>360</v>
       </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2" t="s">
+      <c r="G40" s="19">
+        <v>0</v>
+      </c>
+      <c r="H40" s="19">
+        <v>0</v>
+      </c>
+      <c r="I40" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="7">
+      <c r="A41" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="17">
         <f ca="1">TODAY()+17</f>
-        <v>45357</v>
+        <v>45361</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="D41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="18">
         <v>9.5</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="19">
         <v>360</v>
       </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2" t="s">
+      <c r="G41" s="19">
+        <v>0</v>
+      </c>
+      <c r="H41" s="19">
+        <v>0</v>
+      </c>
+      <c r="I41" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="7">
+      <c r="A42" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="17">
         <f ca="1">TODAY()-9</f>
-        <v>45331</v>
+        <v>45335</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="D42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="18">
         <v>13</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="19">
         <v>320</v>
       </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <v>15</v>
-      </c>
-      <c r="I42" s="2" t="s">
+      <c r="G42" s="19">
+        <v>0</v>
+      </c>
+      <c r="H42" s="19">
+        <v>15</v>
+      </c>
+      <c r="I42" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="7">
+      <c r="A43" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="17">
         <f ca="1">TODAY()-9</f>
-        <v>45331</v>
-      </c>
-      <c r="C43" s="3" t="s">
+        <v>45335</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="D43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="18">
         <v>13</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="19">
         <v>320</v>
       </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>15</v>
-      </c>
-      <c r="I43" s="2" t="s">
+      <c r="G43" s="19">
+        <v>0</v>
+      </c>
+      <c r="H43" s="19">
+        <v>15</v>
+      </c>
+      <c r="I43" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="7">
+      <c r="A44" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="17">
         <v>44572</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="D44" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="18">
         <v>17.45</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="19">
         <v>290</v>
       </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
+      <c r="G44" s="19">
+        <v>0</v>
+      </c>
+      <c r="H44" s="19">
         <v>10</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="7">
+      <c r="A45" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="17">
         <v>44572</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="D45" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="18">
         <v>17.45</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="19">
         <v>290</v>
       </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
+      <c r="G45" s="19">
+        <v>0</v>
+      </c>
+      <c r="H45" s="19">
         <v>10</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="7">
+      <c r="A46" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="17">
         <v>44551</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="D46" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="18">
         <v>19.45</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="19">
         <v>270</v>
       </c>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <v>15</v>
-      </c>
-      <c r="I46" s="2" t="s">
+      <c r="G46" s="19">
+        <v>0</v>
+      </c>
+      <c r="H46" s="19">
+        <v>15</v>
+      </c>
+      <c r="I46" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="7">
+      <c r="A47" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="17">
         <v>44551</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="D47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="18">
         <v>19.45</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="19">
         <v>270</v>
       </c>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>15</v>
-      </c>
-      <c r="I47" s="2" t="s">
+      <c r="G47" s="19">
+        <v>0</v>
+      </c>
+      <c r="H47" s="19">
+        <v>15</v>
+      </c>
+      <c r="I47" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="7">
+      <c r="A48" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="17">
         <v>44586</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="D48" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="19">
         <v>250</v>
       </c>
-      <c r="G48" s="2">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
+      <c r="G48" s="19">
+        <v>0</v>
+      </c>
+      <c r="H48" s="19">
         <v>5</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="7">
+      <c r="A49" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="17">
         <v>44586</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="D49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="19">
         <v>250</v>
       </c>
-      <c r="G49" s="2">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="G49" s="19">
+        <v>0</v>
+      </c>
+      <c r="H49" s="19">
         <v>5</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="7">
+      <c r="A50" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="17">
         <v>44575</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="4">
+      <c r="D50" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="18">
         <v>43.9</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="19">
         <v>240</v>
       </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
+      <c r="G50" s="19">
+        <v>0</v>
+      </c>
+      <c r="H50" s="19">
         <v>5</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="7">
+      <c r="A51" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="17">
         <v>44575</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="4">
+      <c r="D51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="18">
         <v>43.9</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="19">
         <v>240</v>
       </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
+      <c r="G51" s="19">
+        <v>0</v>
+      </c>
+      <c r="H51" s="19">
         <v>5</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="7">
+      <c r="A52" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="17">
         <v>44584</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="4">
+      <c r="D52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="18">
         <v>4.5</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="21">
         <v>200</v>
       </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2" t="s">
+      <c r="G52" s="19">
+        <v>0</v>
+      </c>
+      <c r="H52" s="19">
+        <v>0</v>
+      </c>
+      <c r="I52" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="7">
+      <c r="A53" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="17">
         <v>44375</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="4">
+      <c r="D53" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="18">
         <v>18</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="19">
         <v>200</v>
       </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <v>15</v>
-      </c>
-      <c r="I53" s="2" t="s">
+      <c r="G53" s="19">
+        <v>0</v>
+      </c>
+      <c r="H53" s="19">
+        <v>15</v>
+      </c>
+      <c r="I53" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="7">
+      <c r="A54" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="17">
         <v>44375</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="4">
+      <c r="D54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="18">
         <v>18</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="19">
         <v>200</v>
       </c>
-      <c r="G54" s="2">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>15</v>
-      </c>
-      <c r="I54" s="2" t="s">
+      <c r="G54" s="19">
+        <v>0</v>
+      </c>
+      <c r="H54" s="19">
+        <v>15</v>
+      </c>
+      <c r="I54" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="7">
+      <c r="A55" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="17">
         <v>44584</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="4">
+      <c r="D55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="18">
         <v>4.5</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="21">
         <v>200</v>
       </c>
-      <c r="G55" s="2">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2" t="s">
+      <c r="G55" s="19">
+        <v>0</v>
+      </c>
+      <c r="H55" s="19">
+        <v>0</v>
+      </c>
+      <c r="I55" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="7">
+      <c r="A56" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="17">
         <v>44550</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="4">
+      <c r="D56" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="18">
         <v>46</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="19">
         <v>170</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="19">
         <v>10</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="19">
         <v>25</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="7">
+      <c r="A57" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="17">
         <v>44327</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="4">
+      <c r="D57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="18">
         <v>263.5</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="19">
         <v>170</v>
       </c>
-      <c r="G57" s="2">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
-        <v>15</v>
-      </c>
-      <c r="I57" s="2" t="s">
+      <c r="G57" s="19">
+        <v>0</v>
+      </c>
+      <c r="H57" s="19">
+        <v>15</v>
+      </c>
+      <c r="I57" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="7">
+      <c r="A58" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="17">
         <v>44327</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="4">
+      <c r="D58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="18">
         <v>263.5</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="19">
         <v>170</v>
       </c>
-      <c r="G58" s="2">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>15</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="G58" s="19">
+        <v>0</v>
+      </c>
+      <c r="H58" s="19">
+        <v>15</v>
+      </c>
+      <c r="I58" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="7">
+      <c r="A59" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="17">
         <v>44423</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="4">
+      <c r="D59" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="18">
         <v>19</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="19">
         <v>170</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="19">
         <v>40</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="19">
         <v>25</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="7">
+      <c r="A60" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="17">
         <v>44423</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="4">
+      <c r="D60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="18">
         <v>19</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="19">
         <v>170</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="19">
         <v>40</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="19">
         <v>25</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="7">
+      <c r="A61" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="17">
         <v>44447</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="D61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="18">
         <v>49.3</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="19">
         <v>170</v>
       </c>
-      <c r="G61" s="2">
-        <v>0</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2" t="s">
+      <c r="G61" s="19">
+        <v>0</v>
+      </c>
+      <c r="H61" s="19">
+        <v>0</v>
+      </c>
+      <c r="I61" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="7">
+      <c r="A62" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="17">
         <v>44447</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="4">
+      <c r="D62" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="18">
         <v>49.3</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="19">
         <v>170</v>
       </c>
-      <c r="G62" s="2">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2" t="s">
+      <c r="G62" s="19">
+        <v>0</v>
+      </c>
+      <c r="H62" s="19">
+        <v>0</v>
+      </c>
+      <c r="I62" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="7">
+      <c r="A63" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="17">
         <v>44550</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="4">
+      <c r="D63" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="18">
         <v>46</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="19">
         <v>170</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="19">
         <v>10</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="19">
         <v>25</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="7">
+      <c r="A64" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="17">
         <f ca="1">TODAY()-40</f>
-        <v>45300</v>
-      </c>
-      <c r="C64" s="3" t="s">
+        <v>45304</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="4">
-        <v>15</v>
-      </c>
-      <c r="F64" s="2">
+      <c r="D64" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="18">
+        <v>15</v>
+      </c>
+      <c r="F64" s="19">
         <v>150</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="19">
         <v>10</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="19">
         <v>30</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="7">
+      <c r="A65" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="17">
         <f ca="1">TODAY()+32</f>
-        <v>45372</v>
-      </c>
-      <c r="C65" s="3" t="s">
+        <v>45376</v>
+      </c>
+      <c r="C65" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="4">
+      <c r="D65" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="18">
         <v>12.75</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="19">
         <v>150</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="19">
         <v>70</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="19">
         <v>25</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="7">
+      <c r="A66" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="17">
         <v>44545</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="4">
+      <c r="D66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="18">
         <v>31.23</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="19">
         <v>150</v>
       </c>
-      <c r="G66" s="2">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2" t="s">
+      <c r="G66" s="19">
+        <v>0</v>
+      </c>
+      <c r="H66" s="19">
+        <v>0</v>
+      </c>
+      <c r="I66" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="7">
+      <c r="A67" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="17">
         <v>44545</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="4">
+      <c r="D67" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="18">
         <v>31.23</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="19">
         <v>150</v>
       </c>
-      <c r="G67" s="2">
-        <v>0</v>
-      </c>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2" t="s">
+      <c r="G67" s="19">
+        <v>0</v>
+      </c>
+      <c r="H67" s="19">
+        <v>0</v>
+      </c>
+      <c r="I67" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="7">
+      <c r="A68" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="17">
         <f ca="1">TODAY()+32</f>
-        <v>45372</v>
-      </c>
-      <c r="C68" s="3" t="s">
+        <v>45376</v>
+      </c>
+      <c r="C68" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="4">
+      <c r="D68" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="18">
         <v>12.75</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="19">
         <v>150</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="19">
         <v>70</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="19">
         <v>25</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="7">
+      <c r="A69" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="17">
         <f ca="1">TODAY()-40</f>
-        <v>45300</v>
-      </c>
-      <c r="C69" s="3" t="s">
+        <v>45304</v>
+      </c>
+      <c r="C69" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="4">
-        <v>15</v>
-      </c>
-      <c r="F69" s="2">
+      <c r="D69" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="18">
+        <v>15</v>
+      </c>
+      <c r="F69" s="19">
         <v>150</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="19">
         <v>10</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="19">
         <v>30</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="7">
+      <c r="A70" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="17">
         <v>44431</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="4">
+      <c r="D70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="18">
         <v>10</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="19">
         <v>130</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="19">
         <v>70</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="19">
         <v>25</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="7">
+      <c r="A71" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="17">
         <v>44431</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="4">
+      <c r="D71" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="18">
         <v>10</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="19">
         <v>130</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="19">
         <v>70</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="19">
         <v>25</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I71" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="7">
+      <c r="A72" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="17">
         <v>44519</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="4">
+      <c r="D72" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="18">
         <v>25</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="21">
         <v>120</v>
       </c>
-      <c r="G72" s="2">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2">
+      <c r="G72" s="19">
+        <v>0</v>
+      </c>
+      <c r="H72" s="19">
         <v>25</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I72" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="7">
+      <c r="A73" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="17">
         <v>44519</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="4">
+      <c r="D73" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="18">
         <v>25</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="21">
         <v>120</v>
       </c>
-      <c r="G73" s="2">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2">
+      <c r="G73" s="19">
+        <v>0</v>
+      </c>
+      <c r="H73" s="19">
         <v>25</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="7">
+      <c r="A74" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="17">
         <f ca="1">TODAY()+2</f>
-        <v>45342</v>
-      </c>
-      <c r="C74" s="3" t="s">
+        <v>45346</v>
+      </c>
+      <c r="C74" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="4">
+      <c r="D74" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="18">
         <v>20</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="19">
         <v>100</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="19">
         <v>60</v>
       </c>
-      <c r="H74" s="2">
-        <v>15</v>
-      </c>
-      <c r="I74" s="2" t="s">
+      <c r="H74" s="19">
+        <v>15</v>
+      </c>
+      <c r="I74" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="7">
+      <c r="A75" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="17">
         <f ca="1">TODAY()+2</f>
-        <v>45342</v>
-      </c>
-      <c r="C75" s="3" t="s">
+        <v>45346</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="4">
+      <c r="D75" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="18">
         <v>20</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="19">
         <v>100</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="19">
         <v>60</v>
       </c>
-      <c r="H75" s="2">
-        <v>15</v>
-      </c>
-      <c r="I75" s="2" t="s">
+      <c r="H75" s="19">
+        <v>15</v>
+      </c>
+      <c r="I75" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="7">
+      <c r="A76" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="17">
         <f ca="1">TODAY()-10</f>
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="5">
+      <c r="D76" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="22">
         <v>12.5</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="23">
         <v>60</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G76" s="23">
         <v>10</v>
       </c>
-      <c r="H76" s="22">
-        <v>15</v>
-      </c>
-      <c r="I76" s="22" t="s">
+      <c r="H76" s="23">
+        <v>15</v>
+      </c>
+      <c r="I76" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" s="7">
+      <c r="A77" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="17">
         <f ca="1">TODAY()-10</f>
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="4">
+      <c r="D77" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="18">
         <v>12.5</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="19">
         <v>60</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="19">
         <v>10</v>
       </c>
-      <c r="H77" s="2">
-        <v>15</v>
-      </c>
-      <c r="I77" s="2" t="s">
+      <c r="H77" s="19">
+        <v>15</v>
+      </c>
+      <c r="I77" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="7">
+      <c r="A78" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="17">
         <v>44535</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="4">
+      <c r="D78" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="18">
         <v>40</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="19">
         <v>60</v>
       </c>
-      <c r="G78" s="2">
-        <v>0</v>
-      </c>
-      <c r="H78" s="2">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2" t="s">
+      <c r="G78" s="19">
+        <v>0</v>
+      </c>
+      <c r="H78" s="19">
+        <v>0</v>
+      </c>
+      <c r="I78" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="7">
+      <c r="A79" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="17">
         <v>44535</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="4">
+      <c r="D79" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="18">
         <v>40</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="19">
         <v>60</v>
       </c>
-      <c r="G79" s="2">
-        <v>0</v>
-      </c>
-      <c r="H79" s="2">
-        <v>0</v>
-      </c>
-      <c r="I79" s="2" t="s">
+      <c r="G79" s="19">
+        <v>0</v>
+      </c>
+      <c r="H79" s="19">
+        <v>0</v>
+      </c>
+      <c r="I79" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" s="7">
+      <c r="A80" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="17">
         <f ca="1">TODAY()-8</f>
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="4">
+      <c r="D80" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="18">
         <v>17</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="19">
         <v>40</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80" s="19">
         <v>100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="19">
         <v>20</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" s="7">
+      <c r="A81" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="17">
         <f ca="1">TODAY()-8</f>
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="4">
+      <c r="D81" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="18">
         <v>17</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="19">
         <v>40</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81" s="19">
         <v>100</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="19">
         <v>20</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="7">
+      <c r="A82" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="17">
         <v>44585</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="4">
+      <c r="D82" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="18">
         <v>10</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="21">
         <v>30</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="19">
         <v>40</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="19">
         <v>5</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I82" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="7">
+      <c r="A83" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="17">
         <v>44585</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="4">
+      <c r="D83" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="18">
         <v>10</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="21">
         <v>30</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="19">
         <v>40</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="19">
         <v>5</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="7">
+      <c r="A84" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="17">
         <v>44563</v>
       </c>
       <c r="C84" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="4">
+      <c r="D84" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="18">
         <v>21.35</v>
       </c>
-      <c r="F84" s="2">
-        <v>0</v>
-      </c>
-      <c r="G84" s="2">
-        <v>0</v>
-      </c>
-      <c r="H84" s="2">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2" t="s">
+      <c r="F84" s="19">
+        <v>0</v>
+      </c>
+      <c r="G84" s="19">
+        <v>0</v>
+      </c>
+      <c r="H84" s="19">
+        <v>0</v>
+      </c>
+      <c r="I84" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="7">
+      <c r="A85" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="17">
         <v>44563</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="4">
+      <c r="D85" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="18">
         <v>21.35</v>
       </c>
-      <c r="F85" s="2">
-        <v>0</v>
-      </c>
-      <c r="G85" s="2">
-        <v>0</v>
-      </c>
-      <c r="H85" s="2">
-        <v>0</v>
-      </c>
-      <c r="I85" s="2" t="s">
+      <c r="F85" s="19">
+        <v>0</v>
+      </c>
+      <c r="G85" s="19">
+        <v>0</v>
+      </c>
+      <c r="H85" s="19">
+        <v>0</v>
+      </c>
+      <c r="I85" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="17">
         <f ca="1">TODAY()+5</f>
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="18">
         <v>24</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="19">
         <v>1150</v>
       </c>
-      <c r="G86" s="2">
-        <v>0</v>
-      </c>
-      <c r="H86" s="2">
+      <c r="G86" s="19">
+        <v>0</v>
+      </c>
+      <c r="H86" s="19">
         <v>20</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="17">
         <f ca="1">TODAY()+5</f>
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="18">
         <v>24</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="19">
         <v>1150</v>
       </c>
-      <c r="G87" s="2">
-        <v>0</v>
-      </c>
-      <c r="H87" s="2">
+      <c r="G87" s="19">
+        <v>0</v>
+      </c>
+      <c r="H87" s="19">
         <v>20</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="17">
         <v>44592</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="18">
         <v>97</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="19">
         <v>290</v>
       </c>
-      <c r="G88" s="2">
-        <v>0</v>
-      </c>
-      <c r="H88" s="2">
-        <v>0</v>
-      </c>
-      <c r="I88" s="2" t="s">
+      <c r="G88" s="19">
+        <v>0</v>
+      </c>
+      <c r="H88" s="19">
+        <v>0</v>
+      </c>
+      <c r="I88" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="17">
         <v>44592</v>
       </c>
       <c r="C89" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="18">
         <v>97</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="19">
         <v>290</v>
       </c>
-      <c r="G89" s="2">
-        <v>0</v>
-      </c>
-      <c r="H89" s="2">
-        <v>0</v>
-      </c>
-      <c r="I89" s="2" t="s">
+      <c r="G89" s="19">
+        <v>0</v>
+      </c>
+      <c r="H89" s="19">
+        <v>0</v>
+      </c>
+      <c r="I89" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="17">
         <f ca="1">TODAY()+14</f>
-        <v>45354</v>
+        <v>45358</v>
       </c>
       <c r="C90" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="18">
         <v>7.45</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="19">
         <v>210</v>
       </c>
-      <c r="G90" s="2">
-        <v>0</v>
-      </c>
-      <c r="H90" s="2">
+      <c r="G90" s="19">
+        <v>0</v>
+      </c>
+      <c r="H90" s="19">
         <v>10</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I90" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="17">
         <f ca="1">TODAY()+14</f>
-        <v>45354</v>
+        <v>45358</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="18">
         <v>7.45</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="19">
         <v>210</v>
       </c>
-      <c r="G91" s="2">
-        <v>0</v>
-      </c>
-      <c r="H91" s="2">
+      <c r="G91" s="19">
+        <v>0</v>
+      </c>
+      <c r="H91" s="19">
         <v>10</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I91" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="25">
         <v>44573</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E92" s="17">
+      <c r="E92" s="27">
         <v>39</v>
       </c>
-      <c r="F92" s="18">
-        <v>0</v>
-      </c>
-      <c r="G92" s="18">
-        <v>0</v>
-      </c>
-      <c r="H92" s="18">
-        <v>0</v>
-      </c>
-      <c r="I92" s="18" t="s">
+      <c r="F92" s="28">
+        <v>0</v>
+      </c>
+      <c r="G92" s="28">
+        <v>0</v>
+      </c>
+      <c r="H92" s="28">
+        <v>0</v>
+      </c>
+      <c r="I92" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="17">
         <v>44580</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="18">
         <v>123.79</v>
       </c>
-      <c r="F93" s="2">
-        <v>0</v>
-      </c>
-      <c r="G93" s="2">
-        <v>0</v>
-      </c>
-      <c r="H93" s="2">
-        <v>0</v>
-      </c>
-      <c r="I93" s="2" t="s">
+      <c r="F93" s="19">
+        <v>0</v>
+      </c>
+      <c r="G93" s="19">
+        <v>0</v>
+      </c>
+      <c r="H93" s="19">
+        <v>0</v>
+      </c>
+      <c r="I93" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="17">
         <v>44573</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="18">
         <v>39</v>
       </c>
-      <c r="F94" s="2">
-        <v>0</v>
-      </c>
-      <c r="G94" s="2">
-        <v>0</v>
-      </c>
-      <c r="H94" s="2">
-        <v>0</v>
-      </c>
-      <c r="I94" s="2" t="s">
+      <c r="F94" s="19">
+        <v>0</v>
+      </c>
+      <c r="G94" s="19">
+        <v>0</v>
+      </c>
+      <c r="H94" s="19">
+        <v>0</v>
+      </c>
+      <c r="I94" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="17">
         <v>44580</v>
       </c>
       <c r="C95" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="18">
         <v>123.79</v>
       </c>
-      <c r="F95" s="2">
-        <v>0</v>
-      </c>
-      <c r="G95" s="2">
-        <v>0</v>
-      </c>
-      <c r="H95" s="2">
-        <v>0</v>
-      </c>
-      <c r="I95" s="2" t="s">
+      <c r="F95" s="19">
+        <v>0</v>
+      </c>
+      <c r="G95" s="19">
+        <v>0</v>
+      </c>
+      <c r="H95" s="19">
+        <v>0</v>
+      </c>
+      <c r="I95" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="17">
         <f ca="1">TODAY()+40</f>
-        <v>45380</v>
-      </c>
-      <c r="C96" s="3" t="s">
+        <v>45384</v>
+      </c>
+      <c r="C96" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="18">
         <v>32.799999999999997</v>
       </c>
-      <c r="F96" s="2">
-        <v>0</v>
-      </c>
-      <c r="G96" s="2">
-        <v>0</v>
-      </c>
-      <c r="H96" s="2">
-        <v>0</v>
-      </c>
-      <c r="I96" s="2" t="s">
+      <c r="F96" s="19">
+        <v>0</v>
+      </c>
+      <c r="G96" s="19">
+        <v>0</v>
+      </c>
+      <c r="H96" s="19">
+        <v>0</v>
+      </c>
+      <c r="I96" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="17">
         <f ca="1">TODAY()+40</f>
-        <v>45380</v>
-      </c>
-      <c r="C97" s="3" t="s">
+        <v>45384</v>
+      </c>
+      <c r="C97" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="18">
         <v>32.799999999999997</v>
       </c>
-      <c r="F97" s="2">
-        <v>0</v>
-      </c>
-      <c r="G97" s="2">
-        <v>0</v>
-      </c>
-      <c r="H97" s="2">
-        <v>0</v>
-      </c>
-      <c r="I97" s="2" t="s">
+      <c r="F97" s="19">
+        <v>0</v>
+      </c>
+      <c r="G97" s="19">
+        <v>0</v>
+      </c>
+      <c r="H97" s="19">
+        <v>0</v>
+      </c>
+      <c r="I97" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="17">
         <v>44560</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="18">
         <v>18.399999999999999</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="19">
         <v>1230</v>
       </c>
-      <c r="G98" s="2">
-        <v>0</v>
-      </c>
-      <c r="H98" s="2">
+      <c r="G98" s="19">
+        <v>0</v>
+      </c>
+      <c r="H98" s="19">
         <v>30</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="I98" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="17">
         <v>44560</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="18">
         <v>18.399999999999999</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="19">
         <v>1230</v>
       </c>
-      <c r="G99" s="2">
-        <v>0</v>
-      </c>
-      <c r="H99" s="2">
+      <c r="G99" s="19">
+        <v>0</v>
+      </c>
+      <c r="H99" s="19">
         <v>30</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="I99" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="17">
         <v>44589</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="18">
         <v>19</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="19">
         <v>1120</v>
       </c>
-      <c r="G100" s="2">
-        <v>0</v>
-      </c>
-      <c r="H100" s="2">
+      <c r="G100" s="19">
+        <v>0</v>
+      </c>
+      <c r="H100" s="19">
         <v>20</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I100" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="17">
         <v>44589</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="18">
         <v>19</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="19">
         <v>1120</v>
       </c>
-      <c r="G101" s="2">
-        <v>0</v>
-      </c>
-      <c r="H101" s="2">
+      <c r="G101" s="19">
+        <v>0</v>
+      </c>
+      <c r="H101" s="19">
         <v>20</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="I101" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="17">
         <f ca="1">TODAY()-59</f>
-        <v>45281</v>
-      </c>
-      <c r="C102" s="3" t="s">
+        <v>45285</v>
+      </c>
+      <c r="C102" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E102" s="4">
-        <v>15</v>
-      </c>
-      <c r="F102" s="2">
+      <c r="E102" s="18">
+        <v>15</v>
+      </c>
+      <c r="F102" s="19">
         <v>1010</v>
       </c>
-      <c r="G102" s="2">
-        <v>0</v>
-      </c>
-      <c r="H102" s="2">
+      <c r="G102" s="19">
+        <v>0</v>
+      </c>
+      <c r="H102" s="19">
         <v>5</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="I102" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="17">
         <f ca="1">TODAY()-59</f>
-        <v>45281</v>
-      </c>
-      <c r="C103" s="3" t="s">
+        <v>45285</v>
+      </c>
+      <c r="C103" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E103" s="4">
-        <v>15</v>
-      </c>
-      <c r="F103" s="2">
+      <c r="E103" s="18">
+        <v>15</v>
+      </c>
+      <c r="F103" s="19">
         <v>1010</v>
       </c>
-      <c r="G103" s="2">
-        <v>0</v>
-      </c>
-      <c r="H103" s="2">
+      <c r="G103" s="19">
+        <v>0</v>
+      </c>
+      <c r="H103" s="19">
         <v>5</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="I103" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="17">
         <f ca="1">TODAY()+2</f>
-        <v>45342</v>
-      </c>
-      <c r="C104" s="3" t="s">
+        <v>45346</v>
+      </c>
+      <c r="C104" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="18">
         <v>12</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="19">
         <v>950</v>
       </c>
-      <c r="G104" s="2">
-        <v>0</v>
-      </c>
-      <c r="H104" s="2">
-        <v>0</v>
-      </c>
-      <c r="I104" s="2" t="s">
+      <c r="G104" s="19">
+        <v>0</v>
+      </c>
+      <c r="H104" s="19">
+        <v>0</v>
+      </c>
+      <c r="I104" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="17">
         <f ca="1">TODAY()+2</f>
-        <v>45342</v>
-      </c>
-      <c r="C105" s="3" t="s">
+        <v>45346</v>
+      </c>
+      <c r="C105" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="18">
         <v>12</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="19">
         <v>950</v>
       </c>
-      <c r="G105" s="2">
-        <v>0</v>
-      </c>
-      <c r="H105" s="2">
-        <v>0</v>
-      </c>
-      <c r="I105" s="2" t="s">
+      <c r="G105" s="19">
+        <v>0</v>
+      </c>
+      <c r="H105" s="19">
+        <v>0</v>
+      </c>
+      <c r="I105" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="17">
         <v>44561</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="18">
         <v>9.65</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="19">
         <v>850</v>
       </c>
-      <c r="G106" s="2">
-        <v>0</v>
-      </c>
-      <c r="H106" s="2">
+      <c r="G106" s="19">
+        <v>0</v>
+      </c>
+      <c r="H106" s="19">
         <v>10</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="I106" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="17">
         <v>44561</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="18">
         <v>9.65</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="19">
         <v>850</v>
       </c>
-      <c r="G107" s="2">
-        <v>0</v>
-      </c>
-      <c r="H107" s="2">
+      <c r="G107" s="19">
+        <v>0</v>
+      </c>
+      <c r="H107" s="19">
         <v>10</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="I107" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="17">
         <v>44407</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="18">
         <v>13.25</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="19">
         <v>620</v>
       </c>
-      <c r="G108" s="2">
-        <v>0</v>
-      </c>
-      <c r="H108" s="2">
+      <c r="G108" s="19">
+        <v>0</v>
+      </c>
+      <c r="H108" s="19">
         <v>20</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="I108" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="17">
         <v>44407</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="18">
         <v>13.25</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="19">
         <v>620</v>
       </c>
-      <c r="G109" s="2">
-        <v>0</v>
-      </c>
-      <c r="H109" s="2">
+      <c r="G109" s="19">
+        <v>0</v>
+      </c>
+      <c r="H109" s="19">
         <v>20</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="I109" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="17">
         <v>44574</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="18">
         <v>62.5</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="19">
         <v>420</v>
       </c>
-      <c r="G110" s="2">
-        <v>0</v>
-      </c>
-      <c r="H110" s="2">
-        <v>0</v>
-      </c>
-      <c r="I110" s="2" t="s">
+      <c r="G110" s="19">
+        <v>0</v>
+      </c>
+      <c r="H110" s="19">
+        <v>0</v>
+      </c>
+      <c r="I110" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="17">
         <v>44574</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="18">
         <v>62.5</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="19">
         <v>420</v>
       </c>
-      <c r="G111" s="2">
-        <v>0</v>
-      </c>
-      <c r="H111" s="2">
-        <v>0</v>
-      </c>
-      <c r="I111" s="2" t="s">
+      <c r="G111" s="19">
+        <v>0</v>
+      </c>
+      <c r="H111" s="19">
+        <v>0</v>
+      </c>
+      <c r="I111" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="17">
         <v>44557</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="18">
         <v>23.25</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="19">
         <v>350</v>
       </c>
-      <c r="G112" s="2">
-        <v>0</v>
-      </c>
-      <c r="H112" s="2">
-        <v>0</v>
-      </c>
-      <c r="I112" s="2" t="s">
+      <c r="G112" s="19">
+        <v>0</v>
+      </c>
+      <c r="H112" s="19">
+        <v>0</v>
+      </c>
+      <c r="I112" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="17">
         <v>44557</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="18">
         <v>23.25</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="19">
         <v>350</v>
       </c>
-      <c r="G113" s="2">
-        <v>0</v>
-      </c>
-      <c r="H113" s="2">
-        <v>0</v>
-      </c>
-      <c r="I113" s="2" t="s">
+      <c r="G113" s="19">
+        <v>0</v>
+      </c>
+      <c r="H113" s="19">
+        <v>0</v>
+      </c>
+      <c r="I113" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="17">
         <v>44593</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="18">
         <v>31</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="19">
         <v>310</v>
       </c>
-      <c r="G114" s="2">
-        <v>0</v>
-      </c>
-      <c r="H114" s="2">
-        <v>0</v>
-      </c>
-      <c r="I114" s="2" t="s">
+      <c r="G114" s="19">
+        <v>0</v>
+      </c>
+      <c r="H114" s="19">
+        <v>0</v>
+      </c>
+      <c r="I114" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="17">
         <v>44593</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="18">
         <v>31</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="19">
         <v>310</v>
       </c>
-      <c r="G115" s="2">
-        <v>0</v>
-      </c>
-      <c r="H115" s="2">
-        <v>0</v>
-      </c>
-      <c r="I115" s="2" t="s">
+      <c r="G115" s="19">
+        <v>0</v>
+      </c>
+      <c r="H115" s="19">
+        <v>0</v>
+      </c>
+      <c r="I115" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="17">
         <v>44579</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="18">
         <v>45.6</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="19">
         <v>260</v>
       </c>
-      <c r="G116" s="2">
-        <v>0</v>
-      </c>
-      <c r="H116" s="2">
-        <v>0</v>
-      </c>
-      <c r="I116" s="2" t="s">
+      <c r="G116" s="19">
+        <v>0</v>
+      </c>
+      <c r="H116" s="19">
+        <v>0</v>
+      </c>
+      <c r="I116" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="17">
         <v>44579</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="18">
         <v>45.6</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="19">
         <v>260</v>
       </c>
-      <c r="G117" s="2">
-        <v>0</v>
-      </c>
-      <c r="H117" s="2">
-        <v>0</v>
-      </c>
-      <c r="I117" s="2" t="s">
+      <c r="G117" s="19">
+        <v>0</v>
+      </c>
+      <c r="H117" s="19">
+        <v>0</v>
+      </c>
+      <c r="I117" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="17">
         <v>44556</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="18">
         <v>6</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="19">
         <v>240</v>
       </c>
-      <c r="G118" s="2">
-        <v>0</v>
-      </c>
-      <c r="H118" s="2">
+      <c r="G118" s="19">
+        <v>0</v>
+      </c>
+      <c r="H118" s="19">
         <v>5</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="I118" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="17">
         <v>44556</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="18">
         <v>6</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="19">
         <v>240</v>
       </c>
-      <c r="G119" s="2">
-        <v>0</v>
-      </c>
-      <c r="H119" s="2">
+      <c r="G119" s="19">
+        <v>0</v>
+      </c>
+      <c r="H119" s="19">
         <v>5</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="I119" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="17">
         <f ca="1">TODAY()+7</f>
-        <v>45347</v>
-      </c>
-      <c r="C120" s="3" t="s">
+        <v>45351</v>
+      </c>
+      <c r="C120" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="18">
         <v>53</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="19">
         <v>200</v>
       </c>
-      <c r="G120" s="2">
-        <v>0</v>
-      </c>
-      <c r="H120" s="2">
+      <c r="G120" s="19">
+        <v>0</v>
+      </c>
+      <c r="H120" s="19">
         <v>10</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="I120" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="17">
         <f ca="1">TODAY()+7</f>
-        <v>45347</v>
-      </c>
-      <c r="C121" s="3" t="s">
+        <v>45351</v>
+      </c>
+      <c r="C121" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="18">
         <v>53</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="19">
         <v>200</v>
       </c>
-      <c r="G121" s="2">
-        <v>0</v>
-      </c>
-      <c r="H121" s="2">
+      <c r="G121" s="19">
+        <v>0</v>
+      </c>
+      <c r="H121" s="19">
         <v>10</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="I121" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="17">
         <v>44527</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="18">
         <v>30</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="19">
         <v>150</v>
       </c>
-      <c r="G122" s="2">
-        <v>0</v>
-      </c>
-      <c r="H122" s="2">
+      <c r="G122" s="19">
+        <v>0</v>
+      </c>
+      <c r="H122" s="19">
         <v>10</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="I122" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="17">
         <v>44527</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="18">
         <v>30</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="19">
         <v>150</v>
       </c>
-      <c r="G123" s="2">
-        <v>0</v>
-      </c>
-      <c r="H123" s="2">
+      <c r="G123" s="19">
+        <v>0</v>
+      </c>
+      <c r="H123" s="19">
         <v>10</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="I123" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124" s="17">
         <v>44590</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="18">
         <v>26</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="19">
         <v>110</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G124" s="19">
         <v>50</v>
       </c>
-      <c r="H124" s="2">
+      <c r="H124" s="19">
         <v>25</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="I124" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="17">
         <v>44590</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="18">
         <v>26</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125" s="19">
         <v>110</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G125" s="19">
         <v>50</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H125" s="19">
         <v>25</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="I125" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="17">
         <v>44566</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126" s="18">
         <v>25.89</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="19">
         <v>100</v>
       </c>
-      <c r="G126" s="2">
-        <v>0</v>
-      </c>
-      <c r="H126" s="2">
-        <v>15</v>
-      </c>
-      <c r="I126" s="2" t="s">
+      <c r="G126" s="19">
+        <v>0</v>
+      </c>
+      <c r="H126" s="19">
+        <v>15</v>
+      </c>
+      <c r="I126" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="17">
         <v>44566</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="18">
         <v>25.89</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="19">
         <v>100</v>
       </c>
-      <c r="G127" s="2">
-        <v>0</v>
-      </c>
-      <c r="H127" s="2">
-        <v>15</v>
-      </c>
-      <c r="I127" s="2" t="s">
+      <c r="G127" s="19">
+        <v>0</v>
+      </c>
+      <c r="H127" s="19">
+        <v>15</v>
+      </c>
+      <c r="I127" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="17">
         <f ca="1">TODAY()+1</f>
+        <v>45345</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="F128" s="19">
+        <v>50</v>
+      </c>
+      <c r="G128" s="19">
+        <v>70</v>
+      </c>
+      <c r="H128" s="19">
+        <v>15</v>
+      </c>
+      <c r="I128" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" s="17">
+        <f ca="1">TODAY()+1</f>
+        <v>45345</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="F129" s="19">
+        <v>50</v>
+      </c>
+      <c r="G129" s="19">
+        <v>70</v>
+      </c>
+      <c r="H129" s="19">
+        <v>15</v>
+      </c>
+      <c r="I129" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" s="17">
+        <f ca="1">TODAY()-10</f>
+        <v>45334</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="18">
+        <v>10</v>
+      </c>
+      <c r="F130" s="19">
+        <v>40</v>
+      </c>
+      <c r="G130" s="19">
+        <v>20</v>
+      </c>
+      <c r="H130" s="19">
+        <v>5</v>
+      </c>
+      <c r="I130" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="17">
+        <f ca="1">TODAY()-10</f>
+        <v>45334</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="18">
+        <v>10</v>
+      </c>
+      <c r="F131" s="19">
+        <v>40</v>
+      </c>
+      <c r="G131" s="19">
+        <v>20</v>
+      </c>
+      <c r="H131" s="19">
+        <v>5</v>
+      </c>
+      <c r="I131" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" s="17">
+        <v>44567</v>
+      </c>
+      <c r="C132" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="F132" s="19">
+        <v>1120</v>
+      </c>
+      <c r="G132" s="19">
+        <v>0</v>
+      </c>
+      <c r="H132" s="19">
+        <v>20</v>
+      </c>
+      <c r="I132" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" s="17">
+        <v>44567</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="F133" s="19">
+        <v>1120</v>
+      </c>
+      <c r="G133" s="19">
+        <v>0</v>
+      </c>
+      <c r="H133" s="19">
+        <v>20</v>
+      </c>
+      <c r="I133" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B134" s="17">
+        <v>44399</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="18">
+        <v>38</v>
+      </c>
+      <c r="F134" s="19">
+        <v>860</v>
+      </c>
+      <c r="G134" s="19">
+        <v>0</v>
+      </c>
+      <c r="H134" s="19">
+        <v>0</v>
+      </c>
+      <c r="I134" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" s="17">
+        <v>44399</v>
+      </c>
+      <c r="C135" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="18">
+        <v>38</v>
+      </c>
+      <c r="F135" s="19">
+        <v>860</v>
+      </c>
+      <c r="G135" s="19">
+        <v>0</v>
+      </c>
+      <c r="H135" s="19">
+        <v>0</v>
+      </c>
+      <c r="I135" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B136" s="17">
+        <v>44479</v>
+      </c>
+      <c r="C136" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="18">
+        <v>55</v>
+      </c>
+      <c r="F136" s="19">
+        <v>790</v>
+      </c>
+      <c r="G136" s="19">
+        <v>0</v>
+      </c>
+      <c r="H136" s="19">
+        <v>0</v>
+      </c>
+      <c r="I136" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" s="17">
+        <v>44479</v>
+      </c>
+      <c r="C137" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="18">
+        <v>55</v>
+      </c>
+      <c r="F137" s="19">
+        <v>790</v>
+      </c>
+      <c r="G137" s="19">
+        <v>0</v>
+      </c>
+      <c r="H137" s="19">
+        <v>0</v>
+      </c>
+      <c r="I137" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="17">
+        <f ca="1">TODAY()-3</f>
         <v>45341</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E128" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="F128" s="2">
-        <v>50</v>
-      </c>
-      <c r="G128" s="2">
+      <c r="C138" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="18">
+        <v>21.5</v>
+      </c>
+      <c r="F138" s="19">
+        <v>260</v>
+      </c>
+      <c r="G138" s="19">
+        <v>0</v>
+      </c>
+      <c r="H138" s="19">
+        <v>0</v>
+      </c>
+      <c r="I138" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" s="17">
+        <f ca="1">TODAY()-50</f>
+        <v>45294</v>
+      </c>
+      <c r="C139" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="18">
+        <v>36</v>
+      </c>
+      <c r="F139" s="19">
+        <v>260</v>
+      </c>
+      <c r="G139" s="19">
+        <v>0</v>
+      </c>
+      <c r="H139" s="19">
+        <v>15</v>
+      </c>
+      <c r="I139" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" s="17">
+        <f ca="1">TODAY()-50</f>
+        <v>45294</v>
+      </c>
+      <c r="C140" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="18">
+        <v>36</v>
+      </c>
+      <c r="F140" s="19">
+        <v>260</v>
+      </c>
+      <c r="G140" s="19">
+        <v>0</v>
+      </c>
+      <c r="H140" s="19">
+        <v>15</v>
+      </c>
+      <c r="I140" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141" s="17">
+        <f ca="1">TODAY()-3</f>
+        <v>45341</v>
+      </c>
+      <c r="C141" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="18">
+        <v>21.5</v>
+      </c>
+      <c r="F141" s="19">
+        <v>260</v>
+      </c>
+      <c r="G141" s="19">
+        <v>0</v>
+      </c>
+      <c r="H141" s="19">
+        <v>0</v>
+      </c>
+      <c r="I141" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="17">
+        <v>44391</v>
+      </c>
+      <c r="C142" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="18">
+        <v>21</v>
+      </c>
+      <c r="F142" s="19">
+        <v>220</v>
+      </c>
+      <c r="G142" s="19">
+        <v>30</v>
+      </c>
+      <c r="H142" s="19">
+        <v>30</v>
+      </c>
+      <c r="I142" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="17">
+        <v>44391</v>
+      </c>
+      <c r="C143" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="18">
+        <v>21</v>
+      </c>
+      <c r="F143" s="19">
+        <v>220</v>
+      </c>
+      <c r="G143" s="19">
+        <v>30</v>
+      </c>
+      <c r="H143" s="19">
+        <v>30</v>
+      </c>
+      <c r="I143" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" s="17">
+        <v>44487</v>
+      </c>
+      <c r="C144" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="18">
+        <v>34</v>
+      </c>
+      <c r="F144" s="19">
+        <v>190</v>
+      </c>
+      <c r="G144" s="19">
+        <v>0</v>
+      </c>
+      <c r="H144" s="19">
+        <v>0</v>
+      </c>
+      <c r="I144" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" s="17">
+        <v>44487</v>
+      </c>
+      <c r="C145" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="18">
+        <v>34</v>
+      </c>
+      <c r="F145" s="19">
+        <v>190</v>
+      </c>
+      <c r="G145" s="19">
+        <v>0</v>
+      </c>
+      <c r="H145" s="19">
+        <v>0</v>
+      </c>
+      <c r="I145" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" s="17">
+        <f ca="1">TODAY()-45</f>
+        <v>45299</v>
+      </c>
+      <c r="C146" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="18">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F146" s="19">
+        <v>140</v>
+      </c>
+      <c r="G146" s="19">
+        <v>0</v>
+      </c>
+      <c r="H146" s="19">
+        <v>0</v>
+      </c>
+      <c r="I146" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" s="17">
+        <f ca="1">TODAY()-45</f>
+        <v>45299</v>
+      </c>
+      <c r="C147" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="18">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F147" s="19">
+        <v>140</v>
+      </c>
+      <c r="G147" s="19">
+        <v>0</v>
+      </c>
+      <c r="H147" s="19">
+        <v>0</v>
+      </c>
+      <c r="I147" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148" s="17">
+        <v>44463</v>
+      </c>
+      <c r="C148" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="18">
+        <v>32</v>
+      </c>
+      <c r="F148" s="19">
+        <v>90</v>
+      </c>
+      <c r="G148" s="19">
+        <v>40</v>
+      </c>
+      <c r="H148" s="19">
+        <v>25</v>
+      </c>
+      <c r="I148" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149" s="17">
+        <v>44463</v>
+      </c>
+      <c r="C149" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="18">
+        <v>32</v>
+      </c>
+      <c r="F149" s="19">
+        <v>90</v>
+      </c>
+      <c r="G149" s="19">
+        <v>40</v>
+      </c>
+      <c r="H149" s="19">
+        <v>25</v>
+      </c>
+      <c r="I149" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B150" s="17">
+        <v>44455</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="18">
+        <v>12.5</v>
+      </c>
+      <c r="F150" s="19">
+        <v>0</v>
+      </c>
+      <c r="G150" s="19">
         <v>70</v>
       </c>
-      <c r="H128" s="2">
-        <v>15</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B129" s="7">
-        <f ca="1">TODAY()+1</f>
-        <v>45341</v>
-      </c>
-      <c r="C129" s="3" t="s">
+      <c r="H150" s="19">
         <v>20</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="F129" s="2">
-        <v>50</v>
-      </c>
-      <c r="G129" s="2">
+      <c r="I150" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B151" s="17">
+        <v>44455</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="22">
+        <v>12.5</v>
+      </c>
+      <c r="F151" s="23">
+        <v>0</v>
+      </c>
+      <c r="G151" s="23">
         <v>70</v>
       </c>
-      <c r="H129" s="2">
-        <v>15</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B130" s="7">
-        <f ca="1">TODAY()-10</f>
-        <v>45330</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130" s="4">
-        <v>10</v>
-      </c>
-      <c r="F130" s="2">
-        <v>40</v>
-      </c>
-      <c r="G130" s="2">
+      <c r="H151" s="23">
         <v>20</v>
       </c>
-      <c r="H130" s="2">
-        <v>5</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B131" s="7">
-        <f ca="1">TODAY()-10</f>
-        <v>45330</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E131" s="4">
-        <v>10</v>
-      </c>
-      <c r="F131" s="2">
-        <v>40</v>
-      </c>
-      <c r="G131" s="2">
-        <v>20</v>
-      </c>
-      <c r="H131" s="2">
-        <v>5</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B132" s="7">
-        <v>44567</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E132" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F132" s="2">
-        <v>1120</v>
-      </c>
-      <c r="G132" s="2">
-        <v>0</v>
-      </c>
-      <c r="H132" s="2">
-        <v>20</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B133" s="7">
-        <v>44567</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E133" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F133" s="2">
-        <v>1120</v>
-      </c>
-      <c r="G133" s="2">
-        <v>0</v>
-      </c>
-      <c r="H133" s="2">
-        <v>20</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B134" s="7">
-        <v>44399</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E134" s="4">
-        <v>38</v>
-      </c>
-      <c r="F134" s="2">
-        <v>860</v>
-      </c>
-      <c r="G134" s="2">
-        <v>0</v>
-      </c>
-      <c r="H134" s="2">
-        <v>0</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B135" s="7">
-        <v>44399</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E135" s="4">
-        <v>38</v>
-      </c>
-      <c r="F135" s="2">
-        <v>860</v>
-      </c>
-      <c r="G135" s="2">
-        <v>0</v>
-      </c>
-      <c r="H135" s="2">
-        <v>0</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B136" s="7">
-        <v>44479</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E136" s="4">
-        <v>55</v>
-      </c>
-      <c r="F136" s="2">
-        <v>790</v>
-      </c>
-      <c r="G136" s="2">
-        <v>0</v>
-      </c>
-      <c r="H136" s="2">
-        <v>0</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B137" s="7">
-        <v>44479</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E137" s="4">
-        <v>55</v>
-      </c>
-      <c r="F137" s="2">
-        <v>790</v>
-      </c>
-      <c r="G137" s="2">
-        <v>0</v>
-      </c>
-      <c r="H137" s="2">
-        <v>0</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B138" s="7">
-        <f ca="1">TODAY()-3</f>
-        <v>45337</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E138" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="F138" s="2">
-        <v>260</v>
-      </c>
-      <c r="G138" s="2">
-        <v>0</v>
-      </c>
-      <c r="H138" s="2">
-        <v>0</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B139" s="7">
-        <f ca="1">TODAY()-50</f>
-        <v>45290</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E139" s="4">
-        <v>36</v>
-      </c>
-      <c r="F139" s="2">
-        <v>260</v>
-      </c>
-      <c r="G139" s="2">
-        <v>0</v>
-      </c>
-      <c r="H139" s="2">
-        <v>15</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B140" s="7">
-        <f ca="1">TODAY()-50</f>
-        <v>45290</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E140" s="4">
-        <v>36</v>
-      </c>
-      <c r="F140" s="2">
-        <v>260</v>
-      </c>
-      <c r="G140" s="2">
-        <v>0</v>
-      </c>
-      <c r="H140" s="2">
-        <v>15</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B141" s="7">
-        <f ca="1">TODAY()-3</f>
-        <v>45337</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E141" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="F141" s="2">
-        <v>260</v>
-      </c>
-      <c r="G141" s="2">
-        <v>0</v>
-      </c>
-      <c r="H141" s="2">
-        <v>0</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B142" s="7">
-        <v>44391</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E142" s="4">
-        <v>21</v>
-      </c>
-      <c r="F142" s="2">
-        <v>220</v>
-      </c>
-      <c r="G142" s="2">
-        <v>30</v>
-      </c>
-      <c r="H142" s="2">
-        <v>30</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B143" s="7">
-        <v>44391</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E143" s="4">
-        <v>21</v>
-      </c>
-      <c r="F143" s="2">
-        <v>220</v>
-      </c>
-      <c r="G143" s="2">
-        <v>30</v>
-      </c>
-      <c r="H143" s="2">
-        <v>30</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B144" s="7">
-        <v>44487</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E144" s="4">
-        <v>34</v>
-      </c>
-      <c r="F144" s="2">
-        <v>190</v>
-      </c>
-      <c r="G144" s="2">
-        <v>0</v>
-      </c>
-      <c r="H144" s="2">
-        <v>0</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B145" s="7">
-        <v>44487</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E145" s="4">
-        <v>34</v>
-      </c>
-      <c r="F145" s="2">
-        <v>190</v>
-      </c>
-      <c r="G145" s="2">
-        <v>0</v>
-      </c>
-      <c r="H145" s="2">
-        <v>0</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B146" s="7">
-        <f ca="1">TODAY()-45</f>
-        <v>45295</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E146" s="4">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F146" s="2">
-        <v>140</v>
-      </c>
-      <c r="G146" s="2">
-        <v>0</v>
-      </c>
-      <c r="H146" s="2">
-        <v>0</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B147" s="7">
-        <f ca="1">TODAY()-45</f>
-        <v>45295</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E147" s="4">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F147" s="2">
-        <v>140</v>
-      </c>
-      <c r="G147" s="2">
-        <v>0</v>
-      </c>
-      <c r="H147" s="2">
-        <v>0</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B148" s="7">
-        <v>44463</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E148" s="4">
-        <v>32</v>
-      </c>
-      <c r="F148" s="2">
-        <v>90</v>
-      </c>
-      <c r="G148" s="2">
-        <v>40</v>
-      </c>
-      <c r="H148" s="2">
-        <v>25</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B149" s="7">
-        <v>44463</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E149" s="4">
-        <v>32</v>
-      </c>
-      <c r="F149" s="2">
-        <v>90</v>
-      </c>
-      <c r="G149" s="2">
-        <v>40</v>
-      </c>
-      <c r="H149" s="2">
-        <v>25</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B150" s="7">
-        <v>44455</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E150" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="F150" s="2">
-        <v>0</v>
-      </c>
-      <c r="G150" s="2">
-        <v>70</v>
-      </c>
-      <c r="H150" s="2">
-        <v>20</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B151" s="7">
-        <v>44455</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E151" s="5">
-        <v>12.5</v>
-      </c>
-      <c r="F151" s="22">
-        <v>0</v>
-      </c>
-      <c r="G151" s="22">
-        <v>70</v>
-      </c>
-      <c r="H151" s="22">
-        <v>20</v>
-      </c>
-      <c r="I151" s="22" t="s">
+      <c r="I151" s="23" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I151" xr:uid="{20082FD7-ECB3-42E9-8674-73C04996FA80}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I151">
     <sortCondition ref="D2:D151"/>
     <sortCondition descending="1" ref="F2:F151"/>
@@ -10315,16 +10422,264 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3151B8E-6DE5-4F29-88DF-21431271F426}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="30"/>
+    <col min="2" max="2" width="24.5703125" style="30" customWidth="1"/>
+    <col min="3" max="16384" width="20.7109375" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
+        <v>462</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="33">
+        <v>3700</v>
+      </c>
+      <c r="D2" s="33">
+        <v>1850</v>
+      </c>
+      <c r="E2" s="34">
+        <f>D2/C2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>266</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="33">
+        <v>4200</v>
+      </c>
+      <c r="D3" s="33">
+        <v>1400</v>
+      </c>
+      <c r="E3" s="34">
+        <f t="shared" ref="E3:E4" si="0">D3/C3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>477</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="33">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="33">
+        <v>1250</v>
+      </c>
+      <c r="E4" s="34">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="G5" s="33">
+        <v>3700</v>
+      </c>
+      <c r="H5" s="35">
+        <f>G5*$G$2+G5</f>
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="33">
+        <f>SUM(C2:C4)</f>
+        <v>12900</v>
+      </c>
+      <c r="D6" s="33">
+        <f>SUM(D2:D4)</f>
+        <v>4500</v>
+      </c>
+      <c r="E6" s="38">
+        <f>(D6-C6)/D6</f>
+        <v>-1.8666666666666667</v>
+      </c>
+      <c r="G6" s="33">
+        <v>4200</v>
+      </c>
+      <c r="H6" s="35">
+        <f t="shared" ref="H6:H7" si="1">G6*$G$2+G6</f>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="33">
+        <v>5000</v>
+      </c>
+      <c r="H7" s="35">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="37"/>
+      <c r="G10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="33">
+        <v>3700</v>
+      </c>
+      <c r="H11" s="35">
+        <f>G11*120%</f>
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="33">
+        <v>4200</v>
+      </c>
+      <c r="H12" s="35">
+        <f t="shared" ref="H12:H13" si="2">G12*120%</f>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="33">
+        <v>5000</v>
+      </c>
+      <c r="H13" s="35">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="33">
+        <v>1850</v>
+      </c>
+      <c r="H17" s="35">
+        <f>G17*1.1</f>
+        <v>2035.0000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="33">
+        <v>1400</v>
+      </c>
+      <c r="H18" s="35">
+        <f t="shared" ref="H18:H19" si="3">G18*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="33">
+        <v>1250</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="3"/>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="33">
+        <v>1850</v>
+      </c>
+      <c r="H23" s="35">
+        <f>G23*0.9</f>
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="33">
+        <v>1400</v>
+      </c>
+      <c r="H24" s="35">
+        <f t="shared" ref="H24:H25" si="4">G24*0.9</f>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="33">
+        <v>1250</v>
+      </c>
+      <c r="H25" s="35">
+        <f t="shared" si="4"/>
+        <v>1125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Status xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10553,21 +10908,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Status xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3D3A20-D3C6-4966-9376-802ADF76D014}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE659C79-F521-42E0-A272-086F44ACC0D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
-    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10592,9 +10947,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE659C79-F521-42E0-A272-086F44ACC0D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3D3A20-D3C6-4966-9376-802ADF76D014}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
+    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>